--- a/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Elevator/4wise/0.95_.xlsx
+++ b/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Elevator/4wise/0.95_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thu-trangnguyen/Documents/project/InputPreparation/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Elevator/4wise/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0DF1B4-224A-AF44-8190-63C6EBDAF6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="5" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarantula" sheetId="1" r:id="rId1"/>
@@ -42,7 +48,7 @@
     <sheet name="Kulczynski1" sheetId="33" r:id="rId33"/>
     <sheet name="Kulczynski2" sheetId="34" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -178,11 +184,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,14 +221,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -262,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +316,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,6 +368,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,14 +561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -589,7 +649,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -630,7 +690,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -671,7 +731,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -712,7 +772,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -753,7 +813,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -794,7 +854,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -835,7 +895,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -876,7 +936,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -917,7 +977,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -958,7 +1018,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -999,7 +1059,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1040,7 +1100,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1081,7 +1141,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1182,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +1223,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1204,7 +1264,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1245,7 +1305,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1286,7 +1346,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1333,14 +1393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1479,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1520,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1561,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +1602,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +1643,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1684,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +1725,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1766,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1807,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1848,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1889,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +1930,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1911,7 +1971,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1952,7 +2012,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1993,7 +2053,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +2094,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2075,7 +2135,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2116,7 +2176,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2163,14 +2223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2309,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2350,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2391,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2372,7 +2432,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2413,7 +2473,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2454,7 +2514,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2495,7 +2555,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2536,7 +2596,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2577,7 +2637,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2618,7 +2678,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2719,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2700,7 +2760,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2741,7 +2801,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2782,7 +2842,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2823,7 +2883,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2864,7 +2924,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2905,7 +2965,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2946,7 +3006,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2993,14 +3053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3079,7 +3139,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3120,7 +3180,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3161,7 +3221,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3202,7 +3262,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3243,7 +3303,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3284,7 +3344,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3325,7 +3385,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3366,7 +3426,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3407,7 +3467,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +3508,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3489,7 +3549,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3530,7 +3590,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3571,7 +3631,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3612,7 +3672,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3653,7 +3713,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3694,7 +3754,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3735,7 +3795,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3776,7 +3836,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3823,14 +3883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3909,7 +3969,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3950,7 +4010,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3991,7 +4051,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4032,7 +4092,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4073,7 +4133,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4114,7 +4174,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4155,7 +4215,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4196,7 +4256,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4237,7 +4297,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4278,7 +4338,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4319,7 +4379,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4360,7 +4420,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -4401,7 +4461,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4442,7 +4502,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -4483,7 +4543,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -4524,7 +4584,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4565,7 +4625,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -4606,7 +4666,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -4653,14 +4713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4698,7 +4758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4739,7 +4799,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4780,7 +4840,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4821,7 +4881,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4862,7 +4922,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4903,7 +4963,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4944,7 +5004,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4985,7 +5045,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5026,7 +5086,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5067,7 +5127,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5108,7 +5168,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -5149,7 +5209,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5250,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -5231,7 +5291,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5272,7 +5332,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -5313,7 +5373,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5354,7 +5414,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -5395,7 +5455,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5436,7 +5496,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -5483,14 +5543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5528,7 +5588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5569,7 +5629,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5610,7 +5670,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5651,7 +5711,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5692,7 +5752,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5733,7 +5793,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -5774,7 +5834,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -5815,7 +5875,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5856,7 +5916,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5897,7 +5957,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5938,7 +5998,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -5979,7 +6039,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6020,7 +6080,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6061,7 +6121,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -6102,7 +6162,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6143,7 +6203,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6184,7 +6244,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -6225,7 +6285,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -6266,7 +6326,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -6313,14 +6373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6358,7 +6418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6399,7 +6459,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6440,7 +6500,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6481,7 +6541,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6522,7 +6582,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6563,7 +6623,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -6604,7 +6664,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -6645,7 +6705,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -6686,7 +6746,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6727,7 +6787,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6768,7 +6828,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6809,7 +6869,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6850,7 +6910,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6891,7 +6951,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -6932,7 +6992,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6973,7 +7033,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7014,7 +7074,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -7055,7 +7115,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -7096,7 +7156,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7143,14 +7203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7188,7 +7250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -7205,10 +7267,10 @@
         <v>72</v>
       </c>
       <c r="F2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>448</v>
@@ -7229,7 +7291,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7237,19 +7299,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>219</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G3">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>442</v>
@@ -7270,7 +7332,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7278,19 +7340,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>80</v>
       </c>
       <c r="F4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4">
         <v>442</v>
@@ -7311,7 +7373,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7352,7 +7414,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -7393,7 +7455,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -7410,10 +7472,10 @@
         <v>257</v>
       </c>
       <c r="F7">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H7">
         <v>440</v>
@@ -7434,7 +7496,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -7451,10 +7513,10 @@
         <v>72</v>
       </c>
       <c r="F8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H8">
         <v>448</v>
@@ -7475,7 +7537,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -7516,7 +7578,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7557,7 +7619,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -7598,7 +7660,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -7639,7 +7701,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7742,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -7721,7 +7783,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -7738,10 +7800,10 @@
         <v>114</v>
       </c>
       <c r="F15">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G15">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H15">
         <v>448</v>
@@ -7762,7 +7824,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -7770,19 +7832,19 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D16">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E16">
         <v>255</v>
       </c>
       <c r="F16">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G16">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H16">
         <v>442</v>
@@ -7803,7 +7865,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7844,7 +7906,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -7861,10 +7923,10 @@
         <v>111</v>
       </c>
       <c r="F18">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G18">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H18">
         <v>448</v>
@@ -7885,7 +7947,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -7926,7 +7988,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7973,14 +8035,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -8059,7 +8123,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8067,19 +8131,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>219</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>442</v>
@@ -8100,7 +8164,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8141,7 +8205,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8182,7 +8246,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -8190,19 +8254,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>287</v>
       </c>
       <c r="F6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>442</v>
@@ -8223,7 +8287,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -8231,19 +8295,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>257</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>440</v>
@@ -8264,7 +8328,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -8305,7 +8369,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8346,7 +8410,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -8354,10 +8418,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>234</v>
@@ -8387,7 +8451,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8428,7 +8492,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -8469,7 +8533,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -8510,7 +8574,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -8551,7 +8615,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -8559,10 +8623,10 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>114</v>
@@ -8592,7 +8656,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8633,7 +8697,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -8674,7 +8738,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8715,7 +8779,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -8756,7 +8820,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -8803,14 +8867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8848,7 +8914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -8889,7 +8955,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8930,7 +8996,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8971,7 +9037,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9012,7 +9078,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9053,7 +9119,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -9094,7 +9160,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -9135,7 +9201,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -9176,7 +9242,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9217,7 +9283,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -9258,7 +9324,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -9299,7 +9365,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -9340,7 +9406,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -9381,7 +9447,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9422,7 +9488,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -9463,7 +9529,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -9504,7 +9570,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -9545,7 +9611,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -9586,7 +9652,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -9633,14 +9699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -9719,7 +9785,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9760,7 +9826,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -9801,7 +9867,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9842,7 +9908,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9883,7 +9949,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -9924,7 +9990,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -9965,7 +10031,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -10006,7 +10072,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10047,7 +10113,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10088,7 +10154,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -10129,7 +10195,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -10170,7 +10236,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -10211,7 +10277,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -10252,7 +10318,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -10293,7 +10359,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -10334,7 +10400,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -10375,7 +10441,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -10416,7 +10482,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -10463,14 +10529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X38" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10508,7 +10576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -10549,7 +10617,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10590,7 +10658,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -10631,7 +10699,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -10672,7 +10740,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -10713,7 +10781,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -10754,7 +10822,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -10795,7 +10863,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -10836,7 +10904,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10877,7 +10945,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10918,7 +10986,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -10959,7 +11027,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11000,7 +11068,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11041,7 +11109,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -11082,7 +11150,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -11123,7 +11191,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -11164,7 +11232,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -11205,7 +11273,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -11246,7 +11314,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -11293,14 +11361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11338,7 +11406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -11379,7 +11447,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11420,7 +11488,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11461,7 +11529,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -11502,7 +11570,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -11543,7 +11611,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -11584,7 +11652,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -11625,7 +11693,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -11666,7 +11734,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -11707,7 +11775,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -11748,7 +11816,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -11789,7 +11857,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11830,7 +11898,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11871,7 +11939,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -11912,7 +11980,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -11953,7 +12021,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -11994,7 +12062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -12035,7 +12103,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -12076,7 +12144,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -12123,14 +12191,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12168,7 +12238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -12185,10 +12255,10 @@
         <v>72</v>
       </c>
       <c r="F2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>448</v>
@@ -12209,7 +12279,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12217,19 +12287,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>219</v>
       </c>
       <c r="F3">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G3">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>442</v>
@@ -12250,7 +12320,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -12267,10 +12337,10 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G4">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H4">
         <v>442</v>
@@ -12291,7 +12361,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -12308,10 +12378,10 @@
         <v>236</v>
       </c>
       <c r="F5">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G5">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H5">
         <v>448</v>
@@ -12332,7 +12402,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -12340,19 +12410,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>287</v>
       </c>
       <c r="F6">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="G6">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="H6">
         <v>442</v>
@@ -12373,7 +12443,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -12381,19 +12451,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>257</v>
       </c>
       <c r="F7">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G7">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H7">
         <v>440</v>
@@ -12414,7 +12484,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -12431,10 +12501,10 @@
         <v>72</v>
       </c>
       <c r="F8">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="G8">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="H8">
         <v>448</v>
@@ -12455,7 +12525,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -12463,19 +12533,19 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>286</v>
       </c>
       <c r="F9">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="G9">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="H9">
         <v>442</v>
@@ -12496,7 +12566,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -12513,10 +12583,10 @@
         <v>234</v>
       </c>
       <c r="F10">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G10">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H10">
         <v>448</v>
@@ -12537,7 +12607,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -12578,7 +12648,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -12595,10 +12665,10 @@
         <v>197</v>
       </c>
       <c r="F12">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="G12">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="H12">
         <v>446</v>
@@ -12619,7 +12689,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -12636,10 +12706,10 @@
         <v>23</v>
       </c>
       <c r="F13">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="G13">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="H13">
         <v>421</v>
@@ -12660,7 +12730,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -12701,7 +12771,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -12718,10 +12788,10 @@
         <v>114</v>
       </c>
       <c r="F15">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G15">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H15">
         <v>448</v>
@@ -12742,7 +12812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -12759,10 +12829,10 @@
         <v>255</v>
       </c>
       <c r="F16">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G16">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H16">
         <v>442</v>
@@ -12783,7 +12853,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -12794,16 +12864,16 @@
         <v>-1</v>
       </c>
       <c r="D17">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G17">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H17">
         <v>424</v>
@@ -12824,7 +12894,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -12832,19 +12902,19 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>111</v>
       </c>
       <c r="F18">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G18">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H18">
         <v>448</v>
@@ -12865,7 +12935,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -12906,7 +12976,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -12923,10 +12993,10 @@
         <v>255</v>
       </c>
       <c r="F20">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G20">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H20">
         <v>442</v>
@@ -12953,14 +13023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12998,7 +13068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -13039,7 +13109,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13080,7 +13150,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13121,7 +13191,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -13162,7 +13232,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -13203,7 +13273,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -13244,7 +13314,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -13285,7 +13355,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -13326,7 +13396,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -13367,7 +13437,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -13408,7 +13478,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -13449,7 +13519,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -13490,7 +13560,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -13531,7 +13601,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -13572,7 +13642,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -13613,7 +13683,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -13654,7 +13724,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -13695,7 +13765,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -13736,7 +13806,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -13783,14 +13853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13828,7 +13898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -13869,7 +13939,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13910,7 +13980,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13951,7 +14021,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -13992,7 +14062,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -14033,7 +14103,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -14074,7 +14144,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -14115,7 +14185,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -14156,7 +14226,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -14197,7 +14267,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14238,7 +14308,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -14279,7 +14349,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -14320,7 +14390,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -14361,7 +14431,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -14402,7 +14472,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -14443,7 +14513,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -14484,7 +14554,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -14525,7 +14595,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -14566,7 +14636,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -14613,14 +14683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14658,7 +14728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -14699,7 +14769,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14740,7 +14810,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -14781,7 +14851,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -14822,7 +14892,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -14863,7 +14933,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -14904,7 +14974,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -14945,7 +15015,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -14986,7 +15056,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15027,7 +15097,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -15068,7 +15138,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -15109,7 +15179,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -15150,7 +15220,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -15191,7 +15261,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15232,7 +15302,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15273,7 +15343,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -15314,7 +15384,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -15355,7 +15425,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -15396,7 +15466,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -15443,14 +15513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15488,7 +15558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15529,7 +15599,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -15570,7 +15640,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -15611,7 +15681,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -15652,7 +15722,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -15693,7 +15763,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -15734,7 +15804,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -15775,7 +15845,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -15816,7 +15886,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15857,7 +15927,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -15898,7 +15968,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -15939,7 +16009,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -15980,7 +16050,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -16021,7 +16091,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -16062,7 +16132,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -16103,7 +16173,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -16144,7 +16214,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -16185,7 +16255,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -16226,7 +16296,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -16273,14 +16343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16318,7 +16388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16359,7 +16429,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -16400,7 +16470,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -16441,7 +16511,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -16482,7 +16552,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -16523,7 +16593,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -16564,7 +16634,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -16605,7 +16675,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -16646,7 +16716,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -16687,7 +16757,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -16728,7 +16798,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -16769,7 +16839,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -16810,7 +16880,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -16851,7 +16921,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -16892,7 +16962,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -16933,7 +17003,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -16974,7 +17044,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -17015,7 +17085,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -17056,7 +17126,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -17103,14 +17173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17148,7 +17218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -17189,7 +17259,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -17230,7 +17300,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -17271,7 +17341,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -17312,7 +17382,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -17353,7 +17423,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -17394,7 +17464,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -17435,7 +17505,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -17476,7 +17546,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -17517,7 +17587,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -17558,7 +17628,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -17599,7 +17669,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -17640,7 +17710,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -17681,7 +17751,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -17722,7 +17792,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -17763,7 +17833,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -17804,7 +17874,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -17845,7 +17915,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -17886,7 +17956,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -17933,14 +18003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17978,7 +18048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -18019,7 +18089,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -18060,7 +18130,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -18101,7 +18171,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -18142,7 +18212,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -18183,7 +18253,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -18224,7 +18294,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -18265,7 +18335,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -18306,7 +18376,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -18347,7 +18417,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -18388,7 +18458,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -18429,7 +18499,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -18470,7 +18540,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -18511,7 +18581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -18552,7 +18622,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -18593,7 +18663,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -18634,7 +18704,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -18675,7 +18745,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -18716,7 +18786,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -18763,14 +18833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18808,7 +18878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -18849,7 +18919,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -18890,7 +18960,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -18931,7 +19001,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -18972,7 +19042,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -19013,7 +19083,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -19054,7 +19124,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -19095,7 +19165,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -19136,7 +19206,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -19177,7 +19247,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -19218,7 +19288,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -19259,7 +19329,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -19300,7 +19370,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -19341,7 +19411,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -19382,7 +19452,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -19423,7 +19493,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -19464,7 +19534,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -19505,7 +19575,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -19546,7 +19616,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -19593,827 +19663,830 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
         <v>72</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>448</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>448</v>
+      </c>
+      <c r="I2" s="1">
         <v>9</v>
       </c>
-      <c r="J2">
-        <v>448</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>448</v>
+      </c>
+      <c r="K2" s="1">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>376</v>
       </c>
-      <c r="M2">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="M2" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
         <v>219</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>7</v>
       </c>
-      <c r="H3">
-        <v>442</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="1">
+        <v>442</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>448</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
+      <c r="J3" s="1">
+        <v>448</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
         <v>21</v>
       </c>
-      <c r="M3">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="M3" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>80</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>442</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <v>442</v>
+      </c>
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>448</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>448</v>
+      </c>
+      <c r="K4" s="1">
         <v>14</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>424</v>
       </c>
-      <c r="M4">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="M4" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>236</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>448</v>
+      </c>
+      <c r="I5" s="1">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1">
+        <v>448</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>403</v>
+      </c>
+      <c r="M5" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <v>287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>68</v>
+      </c>
+      <c r="G6" s="1">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1">
+        <v>442</v>
+      </c>
+      <c r="I6" s="1">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1">
+        <v>448</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>257</v>
+      </c>
+      <c r="F7" s="1">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>440</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1">
+        <v>446</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>448</v>
+      </c>
+      <c r="I8" s="1">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>448</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>376</v>
+      </c>
+      <c r="M8" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>286</v>
+      </c>
+      <c r="F9" s="1">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1">
+        <v>442</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>448</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>234</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>448</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>448</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>384</v>
+      </c>
+      <c r="M10" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>442</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>448</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>197</v>
+      </c>
+      <c r="F12" s="1">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1">
+        <v>446</v>
+      </c>
+      <c r="I12" s="1">
+        <v>125</v>
+      </c>
+      <c r="J12" s="1">
+        <v>446</v>
+      </c>
+      <c r="K12" s="1">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1">
+        <v>425</v>
+      </c>
+      <c r="M12" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1">
+        <v>421</v>
+      </c>
+      <c r="I13" s="1">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>427</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>213</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>442</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>448</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>448</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>448</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1">
+        <v>376</v>
+      </c>
+      <c r="M15" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>255</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>442</v>
+      </c>
+      <c r="I16" s="1">
+        <v>139</v>
+      </c>
+      <c r="J16" s="1">
+        <v>448</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>424</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <v>446</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1">
+        <v>430</v>
+      </c>
+      <c r="M17" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>448</v>
-      </c>
-      <c r="I5">
-        <v>67</v>
-      </c>
-      <c r="J5">
-        <v>448</v>
-      </c>
-      <c r="K5">
+      <c r="E18" s="1">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>448</v>
+      </c>
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <v>448</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <v>376</v>
+      </c>
+      <c r="M18" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1">
+        <v>442</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>448</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
         <v>11</v>
       </c>
-      <c r="L5">
-        <v>403</v>
-      </c>
-      <c r="M5">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="M19" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>255</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>442</v>
+      </c>
+      <c r="I20" s="1">
+        <v>72</v>
+      </c>
+      <c r="J20" s="1">
+        <v>448</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>58</v>
-      </c>
-      <c r="D6">
-        <v>58</v>
-      </c>
-      <c r="E6">
-        <v>287</v>
-      </c>
-      <c r="F6">
-        <v>69</v>
-      </c>
-      <c r="G6">
-        <v>69</v>
-      </c>
-      <c r="H6">
-        <v>442</v>
-      </c>
-      <c r="I6">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>448</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>257</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>440</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>446</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>448</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>448</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>376</v>
-      </c>
-      <c r="M8">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>286</v>
-      </c>
-      <c r="F9">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>49</v>
-      </c>
-      <c r="H9">
-        <v>442</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>448</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>21</v>
-      </c>
-      <c r="M9">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>234</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>448</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>448</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>384</v>
-      </c>
-      <c r="M10">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>442</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>448</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>197</v>
-      </c>
-      <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>52</v>
-      </c>
-      <c r="H12">
-        <v>446</v>
-      </c>
-      <c r="I12">
-        <v>125</v>
-      </c>
-      <c r="J12">
-        <v>446</v>
-      </c>
-      <c r="K12">
-        <v>13</v>
-      </c>
-      <c r="L12">
-        <v>425</v>
-      </c>
-      <c r="M12">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>28</v>
-      </c>
-      <c r="H13">
-        <v>421</v>
-      </c>
-      <c r="I13">
-        <v>27</v>
-      </c>
-      <c r="J13">
-        <v>427</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>21</v>
-      </c>
-      <c r="M13">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>213</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>442</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>448</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>114</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>448</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>448</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <v>376</v>
-      </c>
-      <c r="M15">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>255</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>442</v>
-      </c>
-      <c r="I16">
-        <v>139</v>
-      </c>
-      <c r="J16">
-        <v>448</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>424</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
-      <c r="J17">
-        <v>446</v>
-      </c>
-      <c r="K17">
-        <v>15</v>
-      </c>
-      <c r="L17">
-        <v>430</v>
-      </c>
-      <c r="M17">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>111</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>448</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>448</v>
-      </c>
-      <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>376</v>
-      </c>
-      <c r="M18">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>57</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>442</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>448</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>255</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>442</v>
-      </c>
-      <c r="I20">
-        <v>72</v>
-      </c>
-      <c r="J20">
-        <v>448</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>448</v>
       </c>
     </row>
@@ -20423,827 +20496,830 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
         <v>72</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>448</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>448</v>
+      </c>
+      <c r="I2" s="1">
         <v>9</v>
       </c>
-      <c r="J2">
-        <v>448</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>448</v>
+      </c>
+      <c r="K2" s="1">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>376</v>
       </c>
-      <c r="M2">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="M2" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>219</v>
+      </c>
+      <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="G3" s="1">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>219</v>
-      </c>
-      <c r="F3">
+      <c r="H3" s="1">
+        <v>442</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>448</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>442</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>448</v>
+      </c>
+      <c r="K4" s="1">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1">
+        <v>424</v>
+      </c>
+      <c r="M4" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>236</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>448</v>
+      </c>
+      <c r="I5" s="1">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1">
+        <v>448</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>403</v>
+      </c>
+      <c r="M5" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <v>287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>68</v>
+      </c>
+      <c r="G6" s="1">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1">
+        <v>442</v>
+      </c>
+      <c r="I6" s="1">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1">
+        <v>448</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>257</v>
+      </c>
+      <c r="F7" s="1">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>440</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1">
+        <v>446</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>448</v>
+      </c>
+      <c r="I8" s="1">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>448</v>
+      </c>
+      <c r="K8" s="1">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="L8" s="1">
+        <v>376</v>
+      </c>
+      <c r="M8" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>286</v>
+      </c>
+      <c r="F9" s="1">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1">
+        <v>442</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>448</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>234</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>448</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>448</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>384</v>
+      </c>
+      <c r="M10" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>442</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>448</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>197</v>
+      </c>
+      <c r="F12" s="1">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1">
+        <v>446</v>
+      </c>
+      <c r="I12" s="1">
+        <v>125</v>
+      </c>
+      <c r="J12" s="1">
+        <v>446</v>
+      </c>
+      <c r="K12" s="1">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1">
+        <v>425</v>
+      </c>
+      <c r="M12" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1">
+        <v>421</v>
+      </c>
+      <c r="I13" s="1">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>427</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>213</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>442</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>448</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>448</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>448</v>
+      </c>
+      <c r="K15" s="1">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>442</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>448</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
+      <c r="L15" s="1">
+        <v>376</v>
+      </c>
+      <c r="M15" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>255</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>442</v>
+      </c>
+      <c r="I16" s="1">
+        <v>139</v>
+      </c>
+      <c r="J16" s="1">
+        <v>448</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
         <v>21</v>
       </c>
-      <c r="M3">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="M16" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>424</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <v>446</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1">
+        <v>430</v>
+      </c>
+      <c r="M17" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>448</v>
+      </c>
+      <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>442</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>448</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>424</v>
-      </c>
-      <c r="M4">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>236</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>448</v>
-      </c>
-      <c r="I5">
-        <v>67</v>
-      </c>
-      <c r="J5">
-        <v>448</v>
-      </c>
-      <c r="K5">
+      <c r="J18" s="1">
+        <v>448</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <v>376</v>
+      </c>
+      <c r="M18" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1">
+        <v>442</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>448</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
         <v>11</v>
       </c>
-      <c r="L5">
-        <v>403</v>
-      </c>
-      <c r="M5">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="M19" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>255</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>442</v>
+      </c>
+      <c r="I20" s="1">
+        <v>72</v>
+      </c>
+      <c r="J20" s="1">
+        <v>448</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>56</v>
-      </c>
-      <c r="E6">
-        <v>287</v>
-      </c>
-      <c r="F6">
-        <v>66</v>
-      </c>
-      <c r="G6">
-        <v>66</v>
-      </c>
-      <c r="H6">
-        <v>442</v>
-      </c>
-      <c r="I6">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>448</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>257</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>440</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>446</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>448</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>448</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>376</v>
-      </c>
-      <c r="M8">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>286</v>
-      </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>39</v>
-      </c>
-      <c r="H9">
-        <v>442</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>448</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>21</v>
-      </c>
-      <c r="M9">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>234</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>448</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>448</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>384</v>
-      </c>
-      <c r="M10">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>442</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>448</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>197</v>
-      </c>
-      <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>52</v>
-      </c>
-      <c r="H12">
-        <v>446</v>
-      </c>
-      <c r="I12">
-        <v>125</v>
-      </c>
-      <c r="J12">
-        <v>446</v>
-      </c>
-      <c r="K12">
-        <v>13</v>
-      </c>
-      <c r="L12">
-        <v>425</v>
-      </c>
-      <c r="M12">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>28</v>
-      </c>
-      <c r="H13">
-        <v>421</v>
-      </c>
-      <c r="I13">
-        <v>27</v>
-      </c>
-      <c r="J13">
-        <v>427</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>21</v>
-      </c>
-      <c r="M13">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>213</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>442</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>448</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>114</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>448</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>448</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <v>376</v>
-      </c>
-      <c r="M15">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>255</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>442</v>
-      </c>
-      <c r="I16">
-        <v>139</v>
-      </c>
-      <c r="J16">
-        <v>448</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>424</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
-      <c r="J17">
-        <v>446</v>
-      </c>
-      <c r="K17">
-        <v>15</v>
-      </c>
-      <c r="L17">
-        <v>430</v>
-      </c>
-      <c r="M17">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>111</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>448</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>448</v>
-      </c>
-      <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>376</v>
-      </c>
-      <c r="M18">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>57</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>442</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>448</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>255</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>442</v>
-      </c>
-      <c r="I20">
-        <v>72</v>
-      </c>
-      <c r="J20">
-        <v>448</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>448</v>
       </c>
     </row>
@@ -21253,14 +21329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21298,7 +21374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -21339,7 +21415,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -21380,7 +21456,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -21421,7 +21497,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -21462,7 +21538,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -21503,7 +21579,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -21544,7 +21620,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -21585,7 +21661,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -21626,7 +21702,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -21667,7 +21743,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -21708,7 +21784,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -21749,7 +21825,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -21790,7 +21866,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -21831,7 +21907,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -21872,7 +21948,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -21913,7 +21989,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -21954,7 +22030,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -21995,7 +22071,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -22036,7 +22112,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -22083,14 +22159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22128,7 +22204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -22169,7 +22245,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -22210,7 +22286,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -22251,7 +22327,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -22292,7 +22368,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -22333,7 +22409,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -22374,7 +22450,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -22415,7 +22491,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -22456,7 +22532,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -22497,7 +22573,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -22538,7 +22614,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -22579,7 +22655,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -22620,7 +22696,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -22661,7 +22737,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -22702,7 +22778,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -22743,7 +22819,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -22784,7 +22860,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -22825,7 +22901,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -22866,7 +22942,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -22913,14 +22989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22958,7 +23034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -22999,7 +23075,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -23040,7 +23116,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -23081,7 +23157,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -23122,7 +23198,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -23163,7 +23239,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -23204,7 +23280,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -23245,7 +23321,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -23286,7 +23362,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -23327,7 +23403,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -23368,7 +23444,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -23409,7 +23485,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -23450,7 +23526,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -23491,7 +23567,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -23532,7 +23608,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -23573,7 +23649,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -23614,7 +23690,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -23655,7 +23731,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -23696,7 +23772,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -23743,14 +23819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23788,7 +23864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -23829,7 +23905,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -23870,7 +23946,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -23911,7 +23987,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -23952,7 +24028,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -23993,7 +24069,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -24034,7 +24110,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -24075,7 +24151,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -24116,7 +24192,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -24157,7 +24233,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -24198,7 +24274,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -24239,7 +24315,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -24280,7 +24356,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -24321,7 +24397,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -24362,7 +24438,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -24403,7 +24479,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -24444,7 +24520,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -24485,7 +24561,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -24526,7 +24602,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -24573,14 +24649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24618,7 +24694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -24659,7 +24735,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -24700,7 +24776,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -24741,7 +24817,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -24782,7 +24858,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -24823,7 +24899,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -24864,7 +24940,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -24905,7 +24981,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -24946,7 +25022,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -24987,7 +25063,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -25028,7 +25104,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -25069,7 +25145,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -25110,7 +25186,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -25151,7 +25227,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -25192,7 +25268,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -25233,7 +25309,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -25274,7 +25350,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -25315,7 +25391,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -25356,7 +25432,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -25403,14 +25479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25448,7 +25524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -25489,7 +25565,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -25530,7 +25606,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -25571,7 +25647,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -25612,7 +25688,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -25653,7 +25729,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -25694,7 +25770,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -25735,7 +25811,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -25776,7 +25852,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -25817,7 +25893,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -25858,7 +25934,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -25899,7 +25975,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -25940,7 +26016,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -25981,7 +26057,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -26022,7 +26098,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -26063,7 +26139,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -26104,7 +26180,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -26145,7 +26221,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -26186,7 +26262,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -26233,14 +26309,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26278,7 +26356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -26319,7 +26397,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -26360,7 +26438,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -26401,7 +26479,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -26442,7 +26520,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -26483,7 +26561,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -26524,7 +26602,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -26565,7 +26643,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -26606,7 +26684,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -26647,7 +26725,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -26688,7 +26766,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -26729,7 +26807,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -26770,7 +26848,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -26811,7 +26889,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -26852,7 +26930,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -26893,7 +26971,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -26934,7 +27012,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -26975,7 +27053,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -27016,7 +27094,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -27063,14 +27141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27108,7 +27188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -27125,10 +27205,10 @@
         <v>72</v>
       </c>
       <c r="F2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>448</v>
@@ -27149,7 +27229,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -27157,19 +27237,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>219</v>
       </c>
       <c r="F3">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G3">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>442</v>
@@ -27190,7 +27270,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -27231,7 +27311,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -27272,7 +27352,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -27313,7 +27393,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -27354,7 +27434,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -27362,10 +27442,10 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>72</v>
@@ -27395,7 +27475,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -27412,10 +27492,10 @@
         <v>286</v>
       </c>
       <c r="F9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H9">
         <v>442</v>
@@ -27436,7 +27516,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -27453,10 +27533,10 @@
         <v>234</v>
       </c>
       <c r="F10">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G10">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H10">
         <v>448</v>
@@ -27477,7 +27557,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -27518,7 +27598,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -27559,7 +27639,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -27600,7 +27680,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -27641,7 +27721,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -27649,19 +27729,19 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>114</v>
       </c>
       <c r="F15">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G15">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H15">
         <v>448</v>
@@ -27682,7 +27762,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -27723,7 +27803,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -27764,7 +27844,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -27772,10 +27852,10 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>111</v>
@@ -27805,7 +27885,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -27846,7 +27926,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -27893,14 +27973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27938,7 +28018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -27979,7 +28059,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -28020,7 +28100,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -28061,7 +28141,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -28102,7 +28182,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -28143,7 +28223,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -28184,7 +28264,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -28225,7 +28305,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -28266,7 +28346,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -28307,7 +28387,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -28348,7 +28428,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -28389,7 +28469,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -28430,7 +28510,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -28471,7 +28551,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -28512,7 +28592,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -28553,7 +28633,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -28594,7 +28674,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -28635,7 +28715,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -28676,7 +28756,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
